--- a/CUMCM2022支撑材料/excel/result/3/analysis.xlsx
+++ b/CUMCM2022支撑材料/excel/result/3/analysis.xlsx
@@ -463,13 +463,13 @@
         <v>0.13043571320116</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08135228023454112</v>
+        <v>0.09193121167655643</v>
       </c>
       <c r="D2" t="n">
         <v>0.1306147885080104</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04571944199608301</v>
+        <v>0.03908475773596139</v>
       </c>
     </row>
     <row r="3">
@@ -480,13 +480,13 @@
         <v>0.9567094562823357</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2320830868211252</v>
+        <v>0.1907351448739281</v>
       </c>
       <c r="D3" t="n">
         <v>0.9228930429957506</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1952970467720903</v>
+        <v>0.1808845021590784</v>
       </c>
     </row>
     <row r="4">
@@ -497,13 +497,13 @@
         <v>-0.02365501495227934</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03213933484376291</v>
+        <v>0.0312352717766704</v>
       </c>
       <c r="D4" t="n">
         <v>0.01230971578707724</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00510790655104783</v>
+        <v>0.004857433345366129</v>
       </c>
     </row>
     <row r="5">

--- a/CUMCM2022支撑材料/excel/result/3/analysis.xlsx
+++ b/CUMCM2022支撑材料/excel/result/3/analysis.xlsx
@@ -463,13 +463,13 @@
         <v>0.13043571320116</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09193121167655643</v>
+        <v>0.09559115703018314</v>
       </c>
       <c r="D2" t="n">
         <v>0.1306147885080104</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03908475773596139</v>
+        <v>0.04371573424653983</v>
       </c>
     </row>
     <row r="3">
@@ -480,13 +480,13 @@
         <v>0.9567094562823357</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1907351448739281</v>
+        <v>0.1996341131863619</v>
       </c>
       <c r="D3" t="n">
         <v>0.9228930429957506</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1808845021590784</v>
+        <v>0.181632084932793</v>
       </c>
     </row>
     <row r="4">
@@ -497,13 +497,13 @@
         <v>-0.02365501495227934</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0312352717766704</v>
+        <v>0.03480728387516861</v>
       </c>
       <c r="D4" t="n">
         <v>0.01230971578707724</v>
       </c>
       <c r="E4" t="n">
-        <v>0.004857433345366129</v>
+        <v>0.00482838671976374</v>
       </c>
     </row>
     <row r="5">
